--- a/Плешков ПР2.xlsx
+++ b/Плешков ПР2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>x</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>b=-1</t>
+  </si>
+  <si>
+    <t>Изменение</t>
   </si>
 </sst>
 </file>
@@ -509,9 +512,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -520,15 +520,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -576,10 +567,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2077,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,65 +2096,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="31" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="17"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="18"/>
@@ -2178,8 +2181,8 @@
       <c r="G4" s="5">
         <v>1E-3</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="38">
+      <c r="H4" s="25"/>
+      <c r="I4" s="34">
         <v>0</v>
       </c>
       <c r="J4" s="13">
@@ -2230,8 +2233,8 @@
         <f>IF(ABS(E5)&gt;$G$4,"НЕ Корень","Корень")</f>
         <v>НЕ Корень</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="38">
+      <c r="H5" s="25"/>
+      <c r="I5" s="34">
         <f>I4+1</f>
         <v>1</v>
       </c>
@@ -2288,8 +2291,8 @@
         <f t="shared" ref="F6:F15" si="4">IF(ABS(E6)&gt;$G$4,"НЕ Корень","Корень")</f>
         <v>НЕ Корень</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="38">
+      <c r="H6" s="25"/>
+      <c r="I6" s="34">
         <f t="shared" ref="I6:I19" si="5">I5+1</f>
         <v>2</v>
       </c>
@@ -2343,8 +2346,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="38">
+      <c r="H7" s="25"/>
+      <c r="I7" s="34">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2398,8 +2401,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="38">
+      <c r="H8" s="25"/>
+      <c r="I8" s="34">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -2453,8 +2456,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="38">
+      <c r="H9" s="25"/>
+      <c r="I9" s="34">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -2508,8 +2511,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="38">
+      <c r="H10" s="25"/>
+      <c r="I10" s="34">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -2563,8 +2566,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="38">
+      <c r="H11" s="25"/>
+      <c r="I11" s="34">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -2618,8 +2621,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="38">
+      <c r="H12" s="25"/>
+      <c r="I12" s="34">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -2673,8 +2676,8 @@
         <f t="shared" si="4"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="38">
+      <c r="H13" s="25"/>
+      <c r="I13" s="34">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -2729,8 +2732,8 @@
         <v>НЕ Корень</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="38">
+      <c r="H14" s="25"/>
+      <c r="I14" s="34">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -2780,12 +2783,12 @@
         <f t="shared" si="11"/>
         <v>4.6594883315265179E-5</v>
       </c>
-      <c r="F15" s="44" t="str">
+      <c r="F15" s="40" t="str">
         <f t="shared" si="4"/>
         <v>Корень</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="38">
+      <c r="H15" s="25"/>
+      <c r="I15" s="34">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -2815,8 +2818,8 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H16" s="26"/>
-      <c r="I16" s="38">
+      <c r="H16" s="25"/>
+      <c r="I16" s="34">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -2846,8 +2849,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H17" s="26"/>
-      <c r="I17" s="38">
+      <c r="H17" s="25"/>
+      <c r="I17" s="34">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -2877,17 +2880,17 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="38">
+      <c r="H18" s="25"/>
+      <c r="I18" s="34">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -2923,8 +2926,8 @@
       <c r="B19">
         <v>-2.5</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="38">
+      <c r="H19" s="25"/>
+      <c r="I19" s="34">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -2966,27 +2969,27 @@
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="41"/>
+      <c r="H21" s="37"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -3005,7 +3008,7 @@
       <c r="D22" s="22"/>
       <c r="F22" s="18"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="25"/>
       <c r="J22" s="19" t="s">
         <v>19</v>
       </c>
@@ -3041,22 +3044,22 @@
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O23" s="18"/>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f t="shared" ref="A24:A50" si="14">A23+1</f>
+        <f t="shared" ref="A24:A33" si="14">A23+1</f>
         <v>2</v>
       </c>
       <c r="B24" s="22">
@@ -3077,19 +3080,19 @@
         <v>-2.3563609182098766</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" ref="C24:C50" si="16">(B23+1)^3-(B23)</f>
+        <f t="shared" ref="C24:C33" si="16">(B23+1)^3-(B23)</f>
         <v>0.4440827546296291</v>
       </c>
       <c r="D24" s="22">
-        <f t="shared" ref="D24:D50" si="17">ABS(B24-B23)</f>
+        <f t="shared" ref="D24:D33" si="17">ABS(B24-B23)</f>
         <v>0.14802758487654311</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24:E50" si="18">IF(D24&lt;0.0001,"Корень","НЕ Корень")</f>
+        <f t="shared" ref="E24:E33" si="18">IF(D24&lt;0.0001,"Корень","НЕ Корень")</f>
         <v>НЕ Корень</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="8">
         <v>0</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>НЕ Корень</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="H25" s="26"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="8">
         <f>I24+1</f>
         <v>1</v>
@@ -3171,7 +3174,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="8">
         <f t="shared" ref="I26:I37" si="19">I25+1</f>
         <v>2</v>
@@ -3215,7 +3218,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="8">
         <f t="shared" si="19"/>
         <v>3</v>
@@ -3259,7 +3262,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="8">
         <f t="shared" si="19"/>
         <v>4</v>
@@ -3302,7 +3305,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="8">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -3345,7 +3348,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="8">
         <f t="shared" si="19"/>
         <v>6</v>
@@ -3388,7 +3391,7 @@
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="8">
         <f t="shared" si="19"/>
         <v>7</v>
@@ -3411,29 +3414,29 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+      <c r="A32" s="60">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="38">
         <f t="shared" si="15"/>
         <v>-2.3247514987465219</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="38">
         <f t="shared" si="16"/>
         <v>3.3938866435523352E-4</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="38">
         <f t="shared" si="17"/>
         <v>1.1312955478492981E-4</v>
       </c>
-      <c r="E32" s="43" t="str">
+      <c r="E32" s="39" t="str">
         <f t="shared" si="18"/>
         <v>НЕ Корень</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="26"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="8">
         <f t="shared" si="19"/>
         <v>8</v>
@@ -3479,7 +3482,7 @@
       <c r="G33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="8">
         <f t="shared" si="19"/>
         <v>9</v>
@@ -3505,7 +3508,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="8">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -3531,7 +3534,7 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="8">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -3560,7 +3563,7 @@
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="8">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -3586,7 +3589,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="8">
         <f t="shared" si="19"/>
         <v>13</v>
@@ -3612,21 +3615,21 @@
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="45"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="45"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -3634,11 +3637,11 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="45"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -3646,11 +3649,11 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="57"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -3658,11 +3661,13 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
@@ -3670,45 +3675,45 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="53"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="57"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45" s="22"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
@@ -3770,13 +3775,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3836,10 +3841,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="61" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3862,17 +3867,17 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="62"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="str">
+      <c r="A15" s="66" t="str">
         <f>IF(B10*B11&lt;0,"Верно","Неверено")</f>
         <v>Верно</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Плешков ПР2.xlsx
+++ b/Плешков ПР2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Изменение</t>
+  </si>
+  <si>
+    <t>Изменение 2</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2084,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3671,9 @@
       <c r="H42" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
     </row>

--- a/Плешков ПР2.xlsx
+++ b/Плешков ПР2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>x</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Изменение 2</t>
+  </si>
+  <si>
+    <t>Изменение 3</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2087,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,7 +3677,9 @@
       <c r="I42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="K42" s="18"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
